--- a/InfinityThesisStimuliFAST.xlsx
+++ b/InfinityThesisStimuliFAST.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C43249-2C22-7D4F-AB0C-88FA21B74BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB19590-C27A-1C43-83F5-10DD1DA5650B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -124,12 +124,6 @@
     <t>A minute can go on forever</t>
   </si>
   <si>
-    <t>A minute cannot be further divided</t>
-  </si>
-  <si>
-    <t>A minute can be further divided</t>
-  </si>
-  <si>
     <t>An inch is finite</t>
   </si>
   <si>
@@ -145,48 +139,24 @@
     <t>An inch can go on forever</t>
   </si>
   <si>
-    <t>An inch cannot be further divided</t>
-  </si>
-  <si>
-    <t>An inch can be further divided</t>
-  </si>
-  <si>
     <t>Intervals of time cannot go on forever</t>
   </si>
   <si>
     <t>Intervals of time can go on forever</t>
   </si>
   <si>
-    <t>Intervals of time cannot be further divided</t>
-  </si>
-  <si>
-    <t>Intervals of time can be further divided</t>
-  </si>
-  <si>
     <t>Spatial intervals cannot go on forever</t>
   </si>
   <si>
     <t>Spatial intervals can go on forever</t>
   </si>
   <si>
-    <t>Spatial intervals cannot be further divided</t>
-  </si>
-  <si>
-    <t>Spatial intervals can be further divided</t>
-  </si>
-  <si>
     <t>Numerical intervals cannot go on forever</t>
   </si>
   <si>
     <t>Numerical intervals can go on forever</t>
   </si>
   <si>
-    <t>Numerical intervals cannot be further divided</t>
-  </si>
-  <si>
-    <t>Numerical intervals can be further divided</t>
-  </si>
-  <si>
     <t>Time is finite</t>
   </si>
   <si>
@@ -205,12 +175,6 @@
     <t>Time can go on forever</t>
   </si>
   <si>
-    <t>Time cannot be further divided</t>
-  </si>
-  <si>
-    <t>Time can be further divided</t>
-  </si>
-  <si>
     <t>Space is finite</t>
   </si>
   <si>
@@ -226,12 +190,6 @@
     <t>Space can go on forever</t>
   </si>
   <si>
-    <t>Space cannot be further divided</t>
-  </si>
-  <si>
-    <t>Space can be further divided</t>
-  </si>
-  <si>
     <t>Five is finite</t>
   </si>
   <si>
@@ -250,12 +208,6 @@
     <t>Five can go on forever</t>
   </si>
   <si>
-    <t>Five cannot be further divided</t>
-  </si>
-  <si>
-    <t>Five can be further divided</t>
-  </si>
-  <si>
     <t>Crocodiles are alive</t>
   </si>
   <si>
@@ -508,12 +460,6 @@
     <t>Numbers can go on forever</t>
   </si>
   <si>
-    <t>Numbers cannot be further divided</t>
-  </si>
-  <si>
-    <t>Numbers can be further divided</t>
-  </si>
-  <si>
     <t>Sailboats reproduce</t>
   </si>
   <si>
@@ -557,6 +503,60 @@
   </si>
   <si>
     <t>A zebra is used to write</t>
+  </si>
+  <si>
+    <t>A minute cannot always be further divided</t>
+  </si>
+  <si>
+    <t>A minute can always be further divided</t>
+  </si>
+  <si>
+    <t>An inch cannot always be further divided</t>
+  </si>
+  <si>
+    <t>An inch can be always further divided</t>
+  </si>
+  <si>
+    <t>Intervals of time cannot always be further divided</t>
+  </si>
+  <si>
+    <t>Intervals of time can always be further divided</t>
+  </si>
+  <si>
+    <t>Spatial intervals cannot always be further divided</t>
+  </si>
+  <si>
+    <t>Spatial intervals can always be further divided</t>
+  </si>
+  <si>
+    <t>Numerical intervals cannot always be further divided</t>
+  </si>
+  <si>
+    <t>Numerical intervals can always be further divided</t>
+  </si>
+  <si>
+    <t>Time cannot always be further divided</t>
+  </si>
+  <si>
+    <t>Time can always be further divided</t>
+  </si>
+  <si>
+    <t>Space cannot always be further divided</t>
+  </si>
+  <si>
+    <t>Space can always be further divided</t>
+  </si>
+  <si>
+    <t>Numbers cannot always be further divided</t>
+  </si>
+  <si>
+    <t>Numbers can always be further divided</t>
+  </si>
+  <si>
+    <t>Five cannot always be further divided</t>
+  </si>
+  <si>
+    <t>Five can always be further divided</t>
   </si>
 </sst>
 </file>
@@ -978,8 +978,8 @@
   <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1042,55 +1042,55 @@
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1098,303 +1098,303 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1402,815 +1402,815 @@
         <v>3</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2226,18 +2226,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2355,6 +2355,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2365,14 +2373,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
